--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F306F45-D5E7-416C-AAE9-0D8FF69D4207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594D9F2-5D4F-45C1-B574-FECCE640405B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dict" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>运行日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,79 @@
   </si>
   <si>
     <t>考勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id（自增）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text（类型名称，UI显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status（生效，禁用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id（关联dict_type的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid（取dict_info的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code（代码使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">code字段，可支持两种场景：
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid（取dict_item的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景1：比如部门类别，业务中通过dict_item id索引text用于显示，不使用code字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景2：比如用户状态类别，业务中通过dict_item id索引text用于显示，代码中使用code字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,12 +148,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,4 +511,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFBB7CB-2A22-47F9-98A3-E34EE16BDBFA}">
+  <dimension ref="A2:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594D9F2-5D4F-45C1-B574-FECCE640405B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE18B18-4F56-46D5-AB3F-0B70037C17A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dict" sheetId="2" r:id="rId2"/>
+    <sheet name="menu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>运行日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,93 @@
   </si>
   <si>
     <t>场景2：比如用户状态类别，业务中通过dict_item id索引text用于显示，代码中使用code字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>i_frame</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>component_name</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单新增</t>
+  </si>
+  <si>
+    <t>menu:add</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>顶层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system/menu/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu:list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,10 +268,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFBB7CB-2A22-47F9-98A3-E34EE16BDBFA}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -727,4 +830,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D961951-5FA5-4EEF-B607-437AA2ED492A}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE18B18-4F56-46D5-AB3F-0B70037C17A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97326F1A-EC06-4F48-8613-916207EE1FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97326F1A-EC06-4F48-8613-916207EE1FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02775799-99E8-4825-8029-E0B6903F7A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02775799-99E8-4825-8029-E0B6903F7A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163321A0-6E25-4084-98AC-E2CD2378980D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14325" yWindow="1545" windowWidth="15615" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
